--- a/Database I/4/tables/Book1.xlsx
+++ b/Database I/4/tables/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alireza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alireza\Desktop\HW\Homework\Database I\4\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28766D3C-D719-4D79-A35E-7C3DFAF14EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A55EEF-3F1C-4A3F-B7E6-EC31D25A9769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8C89A660-785A-4845-82C8-AF4D583EE6F9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>\lr{Is assigned to}</t>
   </si>
@@ -85,9 +85,6 @@
     <t>\lr{Provides}</t>
   </si>
   <si>
-    <t>\lr{Grades}</t>
-  </si>
-  <si>
     <t>\lr{Make}</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>\lr{Installed by}</t>
   </si>
   <si>
-    <t>\lr{Graded by}</t>
-  </si>
-  <si>
     <t>\lr{Is made of}</t>
   </si>
   <si>
@@ -124,22 +118,19 @@
     <t>\textbf{\lr{Time}}</t>
   </si>
   <si>
-    <t>\textbf{\lr{Driver}}</t>
-  </si>
-  <si>
-    <t>\textbf{\lr{Worker}}</t>
-  </si>
-  <si>
-    <t>\textbf{\lr{Waiter}}</t>
-  </si>
-  <si>
-    <t>\textbf{\lr{Cook}}</t>
-  </si>
-  <si>
     <t>\textbf{\lr{Provider}}</t>
   </si>
   <si>
     <t>\textbf{\lr{Manager}}</t>
+  </si>
+  <si>
+    <t>\textbf{\lr{Staff}}</t>
+  </si>
+  <si>
+    <t>\lr{Orders, Grades}</t>
+  </si>
+  <si>
+    <t>\lr{Ordered by, Graded by}</t>
   </si>
 </sst>
 </file>
@@ -491,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126872CD-AFEB-4DDD-9D27-5D5541D2BC71}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,61 +495,49 @@
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
       <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -569,31 +548,22 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -602,128 +572,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="F5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="G11" t="s">
         <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Database I/4/tables/Book1.xlsx
+++ b/Database I/4/tables/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alireza\Desktop\HW\Homework\Database I\4\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A55EEF-3F1C-4A3F-B7E6-EC31D25A9769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC434A1-8B43-4EC0-8E4A-BA34BCD9F673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{8C89A660-785A-4845-82C8-AF4D583EE6F9}"/>
+    <workbookView xWindow="3072" yWindow="2172" windowWidth="17280" windowHeight="8964" xr2:uid="{8C89A660-785A-4845-82C8-AF4D583EE6F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>\lr{Is assigned to}</t>
   </si>
@@ -40,9 +40,6 @@
     <t>\lr{Works in}</t>
   </si>
   <si>
-    <t>\lr{Serves}</t>
-  </si>
-  <si>
     <t>\lr{Caters}</t>
   </si>
   <si>
@@ -58,27 +55,18 @@
     <t>\lr{Employes}</t>
   </si>
   <si>
-    <t>\lr{Services}</t>
-  </si>
-  <si>
     <t>\lr{Manages}</t>
   </si>
   <si>
     <t>\lr{Superior to}</t>
   </si>
   <si>
-    <t>\lr{Eats at}</t>
-  </si>
-  <si>
     <t>\lr{Assigned to}</t>
   </si>
   <si>
     <t>\lr{Catered by}</t>
   </si>
   <si>
-    <t>\lr{Served by}</t>
-  </si>
-  <si>
     <t>\lr{Employed by}</t>
   </si>
   <si>
@@ -131,6 +119,12 @@
   </si>
   <si>
     <t>\lr{Ordered by, Graded by}</t>
+  </si>
+  <si>
+    <t>\lr{Supplied by}</t>
+  </si>
+  <si>
+    <t>\lr{Supplies}</t>
   </si>
 </sst>
 </file>
@@ -484,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126872CD-AFEB-4DDD-9D27-5D5541D2BC71}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,87 +499,84 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -593,7 +584,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>0</v>
@@ -601,57 +592,54 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
